--- a/tag.xlsx
+++ b/tag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tae_Min_Love\Desktop\web_html\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E066D18-BDE6-4C4D-A794-49F48CF47AD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE821167-6352-4ADA-BD1A-A8513EF325A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="825" windowWidth="21990" windowHeight="13260" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="825" windowWidth="21990" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -347,15 +347,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1215,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B6:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1433,8 +1433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06AED21-6FA9-4B79-B5D9-E1126B1F6AFF}">
   <dimension ref="C4:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1446,10 +1446,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F4" t="s">
@@ -1457,33 +1457,33 @@
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C5" s="8"/>
-      <c r="E5" s="5"/>
+      <c r="C5" s="7"/>
+      <c r="E5" s="8"/>
       <c r="F5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C6" s="8"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="7"/>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C7" s="8"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C8" s="8"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C9" s="8"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>46</v>
       </c>
     </row>
